--- a/final_data_pipeline/output/322110_finishing_elec.xlsx
+++ b/final_data_pipeline/output/322110_finishing_elec.xlsx
@@ -1148,7 +1148,7 @@
         <v>70</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L12">
         <v>8000</v>
@@ -1169,10 +1169,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R12">
-        <v>1.800714285714286</v>
+        <v>1.98600466835246</v>
       </c>
       <c r="S12">
-        <v>1.963947368421052</v>
+        <v>2.18975222777657</v>
       </c>
       <c r="T12">
         <v>35.81898421410562</v>
@@ -1207,7 +1207,7 @@
         <v>34</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L13">
         <v>8000</v>
@@ -1222,10 +1222,10 @@
         <v>177860.6690014798</v>
       </c>
       <c r="R13">
-        <v>2.983181818181818</v>
+        <v>3.629680458828347</v>
       </c>
       <c r="S13">
-        <v>3.590555555555556</v>
+        <v>4.589715938979482</v>
       </c>
       <c r="T13">
         <v>22.23258362518497</v>
@@ -1384,7 +1384,7 @@
         <v>70</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L16">
         <v>8000</v>
@@ -1405,10 +1405,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R16">
-        <v>1.800714285714286</v>
+        <v>1.904889690449167</v>
       </c>
       <c r="S16">
-        <v>1.963947368421052</v>
+        <v>2.090295475371289</v>
       </c>
       <c r="T16">
         <v>18.29830613634732</v>
@@ -1443,7 +1443,7 @@
         <v>34</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L17">
         <v>8000</v>
@@ -1458,10 +1458,10 @@
         <v>90861.00687698918</v>
       </c>
       <c r="R17">
-        <v>2.983181818181818</v>
+        <v>3.33095021773865</v>
       </c>
       <c r="S17">
-        <v>3.590555555555556</v>
+        <v>4.115751405322535</v>
       </c>
       <c r="T17">
         <v>11.35762585962365</v>
